--- a/input/images/tables/ms_refs.xlsx
+++ b/input/images/tables/ms_refs.xlsx
@@ -976,7 +976,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1046,7 +1050,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1225,7 +1233,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1251,10 +1263,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>US Core Specimen Profile</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
     </row>
@@ -1644,7 +1660,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>

--- a/input/images/tables/ms_refs.xlsx
+++ b/input/images/tables/ms_refs.xlsx
@@ -870,29 +870,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Observation Clinical Result Profile</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1140,19 +1136,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">

--- a/input/images/tables/ms_refs.xlsx
+++ b/input/images/tables/ms_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ms_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ms_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1719,6 +1719,6 @@
       <c r="H55" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/ms_refs.xlsx
+++ b/input/images/tables/ms_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ms_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ms_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -828,29 +828,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>US Core Laboratory Result Observation Profile</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
@@ -860,7 +848,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -870,24 +858,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -896,7 +880,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -906,16 +890,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Observation Clinical Result Profile</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -924,39 +916,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>US Core DocumentReference Profile</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>US Core Encounter Profile</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>US Core Condition Encounter Diagnosis Profile</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -964,23 +944,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,7 +984,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US Core Head Circumference Profile</t>
+          <t>US Core FamilyMemberHistory Profile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1008,7 +1004,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US Core Heart Rate Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1016,7 +1012,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1028,29 +1028,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Head Circumference Profile</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
     </row>
@@ -1060,7 +1048,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Heart Rate Profile</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1080,17 +1068,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>US Core Immunization Profile</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>US Core Location Profile</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
     </row>
@@ -1100,10 +1100,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>US Core Medication Profile</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1116,29 +1120,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>US Core Medication Profile</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
     </row>
@@ -1148,27 +1136,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>US Core MedicationDispense Profile</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>US Core Medication Profile</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>US Core Medication Profile</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1180,25 +1168,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>US Core Observation ADI Documentation Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>US Core ADI DocumentReference Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Medication Profile</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
     </row>
@@ -1208,12 +1200,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Observation ADI Documentation Profile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1236,7 +1228,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Observation Clinical Result Profile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1254,11 +1246,7 @@
           <t>US Core Practitioner Profile</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>US Core Specimen Profile</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
     </row>
@@ -1268,17 +1256,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>US Core Specimen Profile</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile</t>
+          <t>US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1328,29 +1328,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>US Core Observation Screening Assessment Profile</t>
+          <t>US Core Observation Pregnancy Status Profile</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US Core Observation Screening Assessment Profile</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
     </row>
@@ -1360,17 +1348,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Observation Screening Assessment Profile</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+          <t>US Core Observation Screening Assessment Profile</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
     </row>
@@ -1380,10 +1380,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>US Core Observation Sexual Orientation Profile</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -1396,7 +1400,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1428,22 +1432,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
+          <t>US Core PMO ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Endpoint</t>
+          <t>US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1460,19 +1464,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1484,17 +1480,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Endpoint</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>US Core Organization Profile</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
     </row>
@@ -1504,15 +1512,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
+          <t>US Core Procedure Profile</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1524,17 +1536,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>Resource</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1548,7 +1560,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1568,7 +1580,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1576,7 +1588,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1588,24 +1604,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -1616,7 +1624,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1624,11 +1632,7 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -1640,20 +1644,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -1664,7 +1672,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1672,7 +1680,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1684,7 +1696,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1692,7 +1704,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1704,7 +1720,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1718,7 +1734,47 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>US Core Treatment Intervention Preference Profile</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/ms_refs.xlsx
+++ b/input/images/tables/ms_refs.xlsx
@@ -1428,101 +1428,93 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PMO ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>US Core ADI DocumentReference Profile</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>US Core PractitionerRole Profile</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Endpoint</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>US Core Organization Profile</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
+          <t>US Core Procedure Profile</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Endpoint</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>Resource</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1532,23 +1524,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Resource</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>US Core Organization Profile</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1556,11 +1544,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1568,7 +1556,11 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1576,11 +1568,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1588,11 +1580,7 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1600,11 +1588,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1620,59 +1608,63 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1692,11 +1684,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1704,11 +1696,7 @@
           <t>US Core Patient Profile</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1716,11 +1704,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1736,11 +1724,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Vital Signs Profile</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1754,26 +1742,6 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
